--- a/term work/Testing Documents/System Tests AI.xlsx
+++ b/term work/Testing Documents/System Tests AI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\term work\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE23DB8B-A888-4510-AA92-61E36DA90599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB689695-41F5-4114-81E6-BADB5D525A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -470,13 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,33 +482,38 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
-  <dimension ref="A1:DC19"/>
+  <dimension ref="A1:DC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="56" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="56" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -859,44 +858,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="21" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:107" ht="21" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
-    <row r="3" spans="1:107" ht="29">
+    <row r="3" spans="1:107">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -947,100 +946,100 @@
       </c>
     </row>
     <row r="4" spans="1:107" s="2" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="8">
         <v>45169</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:107" s="1" customFormat="1" ht="83.5" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="8">
         <v>45169</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="6"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -1134,414 +1133,396 @@
       <c r="DC5" s="3"/>
     </row>
     <row r="6" spans="1:107" ht="66.5" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="8">
         <v>45169</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:107" ht="60" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="8">
         <v>45169</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:107" ht="60" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="8">
         <v>45169</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:107" ht="60" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <v>45169</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:107" ht="60" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="8">
         <v>45169</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:107" ht="60" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="8">
         <v>45169</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:107">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:107">
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:107">
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:107">
-      <c r="A15" s="15"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:107">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1769,6 +1750,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -1777,15 +1767,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1808,6 +1789,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1816,12 +1805,4 @@
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>